--- a/wolf/Excel/Text_文本表.xlsx
+++ b/wolf/Excel/Text_文本表.xlsx
@@ -43,112 +43,112 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -175,7 +175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -193,24 +199,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
   <borders count="16">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -295,27 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFDEE0E3"/>
       </left>
@@ -349,10 +343,10 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -360,34 +354,34 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="7" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="7" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,14 +709,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="51"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="21" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -739,7 +748,7 @@
         <v>String</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
         <v>TextID</v>
       </c>
@@ -756,7 +765,7 @@
         <v>Comment</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
         <v>文本序号
 10000：大厅
@@ -777,7 +786,7 @@
         <v>备注</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="21" r="4">
       <c r="A4" s="1" t="str"/>
       <c r="B4" s="1" t="str"/>
       <c r="C4" s="1" t="str"/>
@@ -786,7 +795,7 @@
       </c>
       <c r="E4" s="1" t="str"/>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -801,7 +810,7 @@
       </c>
       <c r="E5" s="1" t="str"/>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -816,7 +825,7 @@
       </c>
       <c r="E6" s="1" t="str"/>
     </row>
-    <row r="7">
+    <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -831,22 +840,22 @@
       </c>
       <c r="E7" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="73" r="8">
+    <row customHeight="true" ht="78" r="8">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="str">
         <v>随机地图</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="3" t="str">
         <v>Text_Content_10004</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9">
+    <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -860,12 +869,12 @@
 3.优化了侦探、凶手的操作手感及相关界面
 4.调整大厅及关卡场景，提升性能</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="3" t="str">
         <v>Text_Content_10005</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="10">
+    <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -875,12 +884,12 @@
       <c r="C10" s="1" t="str">
         <v>跳转</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="3" t="str">
         <v>Text_Content_10006</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11">
+    <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
         <v>11001</v>
       </c>
@@ -895,7 +904,7 @@
       </c>
       <c r="E11" s="1" t="str"/>
     </row>
-    <row r="12">
+    <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
         <v>11002</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
       <c r="E12" s="1" t="str"/>
     </row>
-    <row r="13">
+    <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
         <v>11003</v>
       </c>
@@ -925,7 +934,7 @@
       </c>
       <c r="E13" s="1" t="str"/>
     </row>
-    <row r="14">
+    <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
         <v>11004</v>
       </c>
@@ -940,7 +949,7 @@
       </c>
       <c r="E14" s="1" t="str"/>
     </row>
-    <row r="15">
+    <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
         <v>11005</v>
       </c>
@@ -955,7 +964,7 @@
       </c>
       <c r="E15" s="1" t="str"/>
     </row>
-    <row r="16">
+    <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
         <v>11006</v>
       </c>
@@ -970,7 +979,7 @@
       </c>
       <c r="E16" s="1" t="str"/>
     </row>
-    <row r="17">
+    <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
         <v>11007</v>
       </c>
@@ -985,7 +994,7 @@
       </c>
       <c r="E17" s="1" t="str"/>
     </row>
-    <row r="18">
+    <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
         <v>11008</v>
       </c>
@@ -1000,7 +1009,7 @@
       </c>
       <c r="E18" s="1" t="str"/>
     </row>
-    <row r="19">
+    <row customHeight="true" ht="21" r="19">
       <c r="A19" s="1">
         <v>11009</v>
       </c>
@@ -1015,7 +1024,7 @@
       </c>
       <c r="E19" s="1" t="str"/>
     </row>
-    <row r="20">
+    <row customHeight="true" ht="21" r="20">
       <c r="A20" s="1">
         <v>11010</v>
       </c>
@@ -1030,7 +1039,7 @@
       </c>
       <c r="E20" s="1" t="str"/>
     </row>
-    <row r="21">
+    <row customHeight="true" ht="21" r="21">
       <c r="A21" s="1">
         <v>11011</v>
       </c>
@@ -1045,7 +1054,7 @@
       </c>
       <c r="E21" s="1" t="str"/>
     </row>
-    <row r="22">
+    <row customHeight="true" ht="21" r="22">
       <c r="A22" s="1">
         <v>11012</v>
       </c>
@@ -1060,7 +1069,7 @@
       </c>
       <c r="E22" s="1" t="str"/>
     </row>
-    <row r="23">
+    <row customHeight="true" ht="21" r="23">
       <c r="A23" s="1">
         <v>11013</v>
       </c>
@@ -1075,157 +1084,157 @@
       </c>
       <c r="E23" s="1" t="str"/>
     </row>
-    <row r="24">
-      <c r="A24" s="3">
+    <row customHeight="true" ht="21" r="24">
+      <c r="A24" s="2">
         <v>11014</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="2" t="str">
         <v>局内玩家信息栏</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="2" t="str">
         <v>待拾取</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="3" t="str">
         <v>Text_Content_11014</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="3">
+    <row customHeight="true" ht="21" r="25">
+      <c r="A25" s="2">
         <v>11015</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="2" t="str">
         <v>局内玩家信息栏</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="2" t="str">
         <v>存在</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="3" t="str">
         <v>Text_Content_11015</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="3">
+    <row customHeight="true" ht="21" r="26">
+      <c r="A26" s="2">
         <v>11016</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="2" t="str">
         <v>学生存活经验</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="2" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="3" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13">
+      <c r="E26" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="27">
+      <c r="A27" s="9">
         <v>11017</v>
       </c>
-      <c r="B27" s="13" t="str">
+      <c r="B27" s="9" t="str">
         <v>凶手局内目标</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="9" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="6" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13">
+      <c r="E27" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="28">
+      <c r="A28" s="9">
         <v>11018</v>
       </c>
-      <c r="B28" s="13" t="str">
+      <c r="B28" s="9" t="str">
         <v>侦探局内目标</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="9" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="6" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13">
+      <c r="E28" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="29">
+      <c r="A29" s="9">
         <v>11019</v>
       </c>
-      <c r="B29" s="13" t="str">
+      <c r="B29" s="9" t="str">
         <v>英雄局内目标</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="9" t="str">
         <v>你化身学生英雄，找到凶手击败他！</v>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D29" s="6" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13">
+      <c r="E29" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="30">
+      <c r="A30" s="9">
         <v>11020</v>
       </c>
-      <c r="B30" s="13" t="str">
+      <c r="B30" s="9" t="str">
         <v>学生局内目标</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="9" t="str">
         <v>活下去...</v>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D30" s="6" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8">
+      <c r="E30" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="31">
+      <c r="A31" s="12">
         <v>11021</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="12" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="12" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="D31" s="9" t="str">
+      <c r="D31" s="13" t="str">
         <v>Text_Content_10021</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8">
+      <c r="E31" s="12"/>
+    </row>
+    <row customHeight="true" ht="21" r="32">
+      <c r="A32" s="12">
         <v>11022</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="12" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="12" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="13" t="str">
         <v>Text_Content_10022</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8">
+      <c r="E32" s="12"/>
+    </row>
+    <row customHeight="true" ht="21" r="33">
+      <c r="A33" s="12">
         <v>11023</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="12" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="12" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="D33" s="9" t="str">
+      <c r="D33" s="13" t="str">
         <v>Text_Content_10023</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34">
+      <c r="E33" s="12"/>
+    </row>
+    <row customHeight="true" ht="21" r="34">
       <c r="A34" s="1">
         <v>12001</v>
       </c>
@@ -1240,7 +1249,7 @@
       </c>
       <c r="E34" s="1" t="str"/>
     </row>
-    <row r="35">
+    <row customHeight="true" ht="21" r="35">
       <c r="A35" s="1">
         <v>12002</v>
       </c>
@@ -1255,7 +1264,7 @@
       </c>
       <c r="E35" s="1" t="str"/>
     </row>
-    <row r="36">
+    <row customHeight="true" ht="21" r="36">
       <c r="A36" s="1">
         <v>12003</v>
       </c>
@@ -1270,7 +1279,7 @@
       </c>
       <c r="E36" s="1" t="str"/>
     </row>
-    <row r="37">
+    <row customHeight="true" ht="21" r="37">
       <c r="A37" s="1">
         <v>12004</v>
       </c>
@@ -1285,357 +1294,357 @@
       </c>
       <c r="E37" s="1" t="str"/>
     </row>
-    <row r="38">
+    <row customHeight="true" ht="21" r="38">
       <c r="A38" s="1">
         <v>12005</v>
       </c>
       <c r="B38" s="1" t="str">
         <v>结算</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="7" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="D38" s="11" t="str">
+      <c r="D38" s="7" t="str">
         <v>Text_Content_12005</v>
       </c>
       <c r="E38" s="1" t="str" xml:space="preserve">
         <v> 对局时间耗尽； 凶手失败，侦探失败； 部分学生胜利，无英雄 </v>
       </c>
     </row>
-    <row r="39">
+    <row customHeight="true" ht="21" r="39">
       <c r="A39" s="1">
         <v>12006</v>
       </c>
       <c r="B39" s="1" t="str">
         <v>结算</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="7" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="D39" s="11" t="str">
+      <c r="D39" s="7" t="str">
         <v>Text_Content_12006</v>
       </c>
       <c r="E39" s="1" t="str" xml:space="preserve">
         <v> 对局时间耗尽； 凶手失败，侦探失败； 部分学生胜利，英雄失败 </v>
       </c>
     </row>
-    <row r="40">
+    <row customHeight="true" ht="21" r="40">
       <c r="A40" s="1">
         <v>12007</v>
       </c>
       <c r="B40" s="1" t="str">
         <v>结算</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="7" t="str">
         <v>奖励</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D40" s="7" t="str">
         <v>Text_Content_12007</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41">
+    <row customHeight="true" ht="21" r="41">
       <c r="A41" s="1">
         <v>12008</v>
       </c>
       <c r="B41" s="1" t="str">
         <v>结算</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="7" t="str">
         <v>本局身份</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="7" t="str">
         <v>Text_Content_12008</v>
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42">
+    <row customHeight="true" ht="21" r="42">
       <c r="A42" s="1">
         <v>12009</v>
       </c>
       <c r="B42" s="1" t="str">
         <v>结算</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="7" t="str">
         <v>收集金币</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D42" s="7" t="str">
         <v>Text_Content_12009</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43">
+    <row customHeight="true" ht="21" r="43">
       <c r="A43" s="1">
         <v>12010</v>
       </c>
       <c r="B43" s="1" t="str">
         <v>结算-凶手</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="7" t="str">
         <v>消灭了{0}名学生</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D43" s="7" t="str">
         <v>Text_Content_12010</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44">
+    <row customHeight="true" ht="21" r="44">
       <c r="A44" s="1">
         <v>12011</v>
       </c>
       <c r="B44" s="1" t="str">
         <v>结算-学生</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="7" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D44" s="7" t="str">
         <v>Text_Content_12011</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45">
+    <row customHeight="true" ht="21" r="45">
       <c r="A45" s="1">
         <v>12012</v>
       </c>
       <c r="B45" s="1" t="str">
         <v>结算-侦探</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C45" s="7" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="D45" s="11" t="str">
+      <c r="D45" s="7" t="str">
         <v>Text_Content_12012</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46">
+    <row customHeight="true" ht="21" r="46">
       <c r="A46" s="1">
         <v>12013</v>
       </c>
       <c r="B46" s="1" t="str">
         <v>结算-英雄</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C46" s="7" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="D46" s="11" t="str">
+      <c r="D46" s="7" t="str">
         <v>Text_Content_12013</v>
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47">
+    <row customHeight="true" ht="21" r="47">
       <c r="A47" s="1">
         <v>12014</v>
       </c>
       <c r="B47" s="1" t="str">
         <v>结算-凶手/学生胜利经验值</v>
       </c>
-      <c r="C47" s="11" t="str">
+      <c r="C47" s="7" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D47" s="7" t="str">
         <v>Text_Content_12014</v>
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48">
+    <row customHeight="true" ht="21" r="48">
       <c r="A48" s="1">
         <v>12015</v>
       </c>
       <c r="B48" s="1" t="str">
         <v>结算-侦探/英雄胜利经验值</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="7" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="D48" s="11" t="str">
+      <c r="D48" s="7" t="str">
         <v>Text_Content_12015</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49">
+    <row customHeight="true" ht="21" r="49">
       <c r="A49" s="1">
         <v>12016</v>
       </c>
       <c r="B49" s="1" t="str">
         <v>结算-看广告</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="7" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D49" s="7" t="str">
         <v>Text_Content_12016</v>
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50">
+    <row customHeight="true" ht="21" r="50">
       <c r="A50" s="1">
         <v>12017</v>
       </c>
       <c r="B50" s="1" t="str">
         <v>结算-看广告按钮</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="7" t="str">
         <v>观看</v>
       </c>
-      <c r="D50" s="11" t="str">
+      <c r="D50" s="7" t="str">
         <v>Text_Content_12017</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51">
+    <row customHeight="true" ht="21" r="51">
       <c r="A51" s="1">
         <v>12018</v>
       </c>
       <c r="B51" s="1" t="str">
         <v>局内界面</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="7" t="str">
         <v>抽奖</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D51" s="7" t="str">
         <v>Text_Content_12018</v>
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52">
+    <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
         <v>12019</v>
       </c>
       <c r="B52" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C52" s="10" t="str">
+      <c r="C52" s="8" t="str">
         <v>武器箱</v>
       </c>
-      <c r="D52" s="10" t="str">
+      <c r="D52" s="8" t="str">
         <v>Text_Content_12019</v>
       </c>
       <c r="E52" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="53">
+    <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
         <v>12020</v>
       </c>
       <c r="B53" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C53" s="10" t="str">
+      <c r="C53" s="8" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="D53" s="10" t="str">
+      <c r="D53" s="8" t="str">
         <v>Text_Content_12020</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="54">
+    <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
         <v>12021</v>
       </c>
       <c r="B54" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C54" s="10" t="str">
+      <c r="C54" s="8" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="D54" s="10" t="str">
+      <c r="D54" s="8" t="str">
         <v>Text_Content_12021</v>
       </c>
       <c r="E54" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="55">
+    <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
         <v>12022</v>
       </c>
       <c r="B55" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C55" s="10" t="str">
+      <c r="C55" s="8" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="D55" s="10" t="str">
+      <c r="D55" s="8" t="str">
         <v>Text_Content_12022</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="56">
+    <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
         <v>12023</v>
       </c>
       <c r="B56" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C56" s="10" t="str">
+      <c r="C56" s="8" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="D56" s="10" t="str">
+      <c r="D56" s="8" t="str">
         <v>Text_Content_12023</v>
       </c>
       <c r="E56" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="57">
+    <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
         <v>12024</v>
       </c>
       <c r="B57" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C57" s="10" t="str">
+      <c r="C57" s="8" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="D57" s="10" t="str">
+      <c r="D57" s="8" t="str">
         <v>Text_Content_12024</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="58">
+    <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
         <v>12025</v>
       </c>
       <c r="B58" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C58" s="10" t="str">
+      <c r="C58" s="8" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="D58" s="10" t="str">
+      <c r="D58" s="8" t="str">
         <v>Text_Content_12025</v>
       </c>
       <c r="E58" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="59">
+    <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
         <v>12026</v>
       </c>
       <c r="B59" s="4" t="str">
         <v>抽奖</v>
       </c>
-      <c r="C59" s="10" t="str">
+      <c r="C59" s="8" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="D59" s="10" t="str">
+      <c r="D59" s="8" t="str">
         <v>Text_Content_12026</v>
       </c>
       <c r="E59" s="5" t="str">
         <v>啊？？？啊？？？啊？？？又不写是吧</v>
       </c>
     </row>
-    <row r="60">
+    <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
         <v>12027</v>
       </c>
@@ -1645,12 +1654,12 @@
       <c r="C60" s="5" t="str">
         <v>能力商店</v>
       </c>
-      <c r="D60" s="6" t="str">
+      <c r="D60" s="4" t="str">
         <v>Text_Content_12027</v>
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61">
+    <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
         <v>12028</v>
       </c>
@@ -1660,12 +1669,12 @@
       <c r="C61" s="5" t="str">
         <v>能力详情</v>
       </c>
-      <c r="D61" s="6" t="str">
+      <c r="D61" s="4" t="str">
         <v>Text_Content_12028</v>
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62">
+    <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
         <v>12029</v>
       </c>
@@ -1675,12 +1684,12 @@
       <c r="C62" s="5" t="str">
         <v>装备</v>
       </c>
-      <c r="D62" s="6" t="str">
+      <c r="D62" s="4" t="str">
         <v>Text_Content_12029</v>
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63">
+    <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
         <v>12030</v>
       </c>
@@ -1690,12 +1699,12 @@
       <c r="C63" s="5" t="str">
         <v>卸下</v>
       </c>
-      <c r="D63" s="6" t="str">
+      <c r="D63" s="4" t="str">
         <v>Text_Content_12030</v>
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64">
+    <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
         <v>12031</v>
       </c>
@@ -1705,12 +1714,12 @@
       <c r="C64" s="5" t="str">
         <v>金币购买</v>
       </c>
-      <c r="D64" s="6" t="str">
+      <c r="D64" s="4" t="str">
         <v>Text_Content_12031</v>
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65">
+    <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
         <v>12032</v>
       </c>
@@ -1720,12 +1729,12 @@
       <c r="C65" s="5" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="D65" s="6" t="str">
+      <c r="D65" s="4" t="str">
         <v>Text_Content_12032</v>
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66">
+    <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
         <v>12033</v>
       </c>
@@ -1735,12 +1744,12 @@
       <c r="C66" s="5" t="str">
         <v>装备中</v>
       </c>
-      <c r="D66" s="6" t="str">
+      <c r="D66" s="4" t="str">
         <v>Text_Content_12033</v>
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67">
+    <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
         <v>12034</v>
       </c>
@@ -1750,12 +1759,12 @@
       <c r="C67" s="5" t="str">
         <v>已拥有</v>
       </c>
-      <c r="D67" s="6" t="str">
+      <c r="D67" s="4" t="str">
         <v>Text_Content_12034</v>
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68">
+    <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
         <v>20001</v>
       </c>
@@ -1770,7 +1779,7 @@
       </c>
       <c r="E68" s="1" t="str"/>
     </row>
-    <row r="69">
+    <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
         <v>20002</v>
       </c>
@@ -1785,7 +1794,7 @@
       </c>
       <c r="E69" s="1" t="str"/>
     </row>
-    <row r="70">
+    <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
         <v>20003</v>
       </c>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="E70" s="1" t="str"/>
     </row>
-    <row r="71">
+    <row customHeight="true" ht="21" r="71">
       <c r="A71" s="1">
         <v>20004</v>
       </c>
@@ -1815,7 +1824,7 @@
       </c>
       <c r="E71" s="1" t="str"/>
     </row>
-    <row r="72">
+    <row customHeight="true" ht="21" r="72">
       <c r="A72" s="1">
         <v>20005</v>
       </c>
@@ -1830,7 +1839,7 @@
       </c>
       <c r="E72" s="1" t="str"/>
     </row>
-    <row r="73">
+    <row customHeight="true" ht="21" r="73">
       <c r="A73" s="1">
         <v>20006</v>
       </c>
@@ -1845,7 +1854,7 @@
       </c>
       <c r="E73" s="1" t="str"/>
     </row>
-    <row r="74">
+    <row customHeight="true" ht="21" r="74">
       <c r="A74" s="1">
         <v>20007</v>
       </c>
@@ -1860,7 +1869,7 @@
       </c>
       <c r="E74" s="1" t="str"/>
     </row>
-    <row r="75">
+    <row customHeight="true" ht="21" r="75">
       <c r="A75" s="1">
         <v>20008</v>
       </c>
@@ -1875,338 +1884,338 @@
       </c>
       <c r="E75" s="1" t="str"/>
     </row>
-    <row r="76">
-      <c r="A76" s="3">
+    <row customHeight="true" ht="21" r="76">
+      <c r="A76" s="2">
         <v>20009</v>
       </c>
-      <c r="B76" s="3" t="str">
+      <c r="B76" s="2" t="str">
         <v>大厅界面</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="2" t="str">
         <v>商店</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="D76" s="2" t="str">
         <v>Text_Content_20009</v>
       </c>
       <c r="E76" s="1" t="str"/>
     </row>
-    <row r="77">
-      <c r="A77" s="3">
+    <row customHeight="true" ht="21" r="77">
+      <c r="A77" s="2">
         <v>20010</v>
       </c>
-      <c r="B77" s="3" t="str">
+      <c r="B77" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="D77" s="3" t="str">
+      <c r="D77" s="2" t="str">
         <v>Text_Content_20010</v>
       </c>
       <c r="E77" s="1" t="str"/>
     </row>
-    <row r="78">
-      <c r="A78" s="3">
+    <row customHeight="true" ht="21" r="78">
+      <c r="A78" s="2">
         <v>20011</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B78" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="D78" s="3" t="str">
+      <c r="D78" s="2" t="str">
         <v>Text_Content_20011</v>
       </c>
       <c r="E78" s="1" t="str"/>
     </row>
-    <row r="79">
-      <c r="A79" s="3">
+    <row customHeight="true" ht="21" r="79">
+      <c r="A79" s="2">
         <v>20012</v>
       </c>
-      <c r="B79" s="3" t="str">
+      <c r="B79" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="2" t="str">
         <v>枪</v>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="D79" s="2" t="str">
         <v>Text_Content_20012</v>
       </c>
       <c r="E79" s="1" t="str"/>
     </row>
-    <row r="80">
-      <c r="A80" s="3">
+    <row customHeight="true" ht="21" r="80">
+      <c r="A80" s="2">
         <v>20013</v>
       </c>
-      <c r="B80" s="3" t="str">
+      <c r="B80" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="2" t="str">
         <v>刀</v>
       </c>
-      <c r="D80" s="3" t="str">
+      <c r="D80" s="2" t="str">
         <v>Text_Content_20013</v>
       </c>
       <c r="E80" s="1" t="str"/>
     </row>
-    <row r="81">
-      <c r="A81" s="3">
+    <row customHeight="true" ht="21" r="81">
+      <c r="A81" s="2">
         <v>20014</v>
       </c>
-      <c r="B81" s="3" t="str">
+      <c r="B81" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="2" t="str">
         <v>套装</v>
       </c>
-      <c r="D81" s="3" t="str">
+      <c r="D81" s="2" t="str">
         <v>Text_Content_20014</v>
       </c>
       <c r="E81" s="1" t="str"/>
     </row>
-    <row r="82">
-      <c r="A82" s="3">
+    <row customHeight="true" ht="21" r="82">
+      <c r="A82" s="2">
         <v>20015</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B82" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C82" s="2" t="str">
+      <c r="C82" s="3" t="str">
         <v>购买</v>
       </c>
-      <c r="D82" s="3" t="str">
+      <c r="D82" s="2" t="str">
         <v>Text_Content_20015</v>
       </c>
       <c r="E82" s="1" t="str"/>
     </row>
-    <row r="83">
-      <c r="A83" s="3">
+    <row customHeight="true" ht="21" r="83">
+      <c r="A83" s="2">
         <v>20016</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B83" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="2" t="str">
         <v>使用</v>
       </c>
-      <c r="D83" s="3" t="str">
+      <c r="D83" s="2" t="str">
         <v>Text_Content_20016</v>
       </c>
       <c r="E83" s="1" t="str"/>
     </row>
-    <row r="84">
-      <c r="A84" s="3">
+    <row customHeight="true" ht="21" r="84">
+      <c r="A84" s="2">
         <v>20017</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="2" t="str">
         <v>脱下</v>
       </c>
-      <c r="D84" s="3" t="str">
+      <c r="D84" s="2" t="str">
         <v>Text_Content_20017</v>
       </c>
       <c r="E84" s="1" t="str"/>
     </row>
-    <row r="85">
-      <c r="A85" s="3">
+    <row customHeight="true" ht="21" r="85">
+      <c r="A85" s="2">
         <v>20018</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="2" t="str">
         <v>购买物品</v>
       </c>
-      <c r="D85" s="3" t="str">
+      <c r="D85" s="2" t="str">
         <v>Text_Content_20018</v>
       </c>
       <c r="E85" s="1" t="str"/>
     </row>
-    <row r="86">
-      <c r="A86" s="3">
+    <row customHeight="true" ht="21" r="86">
+      <c r="A86" s="2">
         <v>20019</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B86" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C86" s="2" t="str">
+      <c r="C86" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D86" s="2" t="str">
         <v>Text_Content_20019</v>
       </c>
       <c r="E86" s="1" t="str"/>
     </row>
-    <row r="87">
-      <c r="A87" s="3">
+    <row customHeight="true" ht="21" r="87">
+      <c r="A87" s="2">
         <v>20020</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B87" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C87" s="2" t="str">
+      <c r="C87" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="D87" s="2" t="str">
         <v>Text_Content_20020</v>
       </c>
       <c r="E87" s="1" t="str"/>
     </row>
-    <row r="88">
-      <c r="A88" s="3">
+    <row customHeight="true" ht="21" r="88">
+      <c r="A88" s="2">
         <v>20021</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B88" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" s="2" t="str">
         <v>确定</v>
       </c>
-      <c r="D88" s="3" t="str">
+      <c r="D88" s="2" t="str">
         <v>Text_Content_20021</v>
       </c>
       <c r="E88" s="1" t="str"/>
     </row>
-    <row r="89">
-      <c r="A89" s="3">
+    <row customHeight="true" ht="21" r="89">
+      <c r="A89" s="2">
         <v>20022</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B89" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" s="2" t="str">
         <v>取消</v>
       </c>
-      <c r="D89" s="3" t="str">
+      <c r="D89" s="2" t="str">
         <v>Text_Content_20022</v>
       </c>
       <c r="E89" s="1" t="str"/>
     </row>
-    <row r="90">
-      <c r="A90" s="3">
+    <row customHeight="true" ht="21" r="90">
+      <c r="A90" s="2">
         <v>20023</v>
       </c>
-      <c r="B90" s="3" t="str">
+      <c r="B90" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C90" s="2" t="str">
+      <c r="C90" s="3" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="D90" s="3" t="str">
+      <c r="D90" s="2" t="str">
         <v>Text_Content_20023</v>
       </c>
       <c r="E90" s="1" t="str"/>
     </row>
-    <row r="91">
-      <c r="A91" s="3">
+    <row customHeight="true" ht="21" r="91">
+      <c r="A91" s="2">
         <v>20024</v>
       </c>
-      <c r="B91" s="3" t="str">
+      <c r="B91" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C91" s="2" t="str">
+      <c r="C91" s="3" t="str">
         <v>购买成功</v>
       </c>
-      <c r="D91" s="3" t="str">
+      <c r="D91" s="2" t="str">
         <v>Text_Content_20024</v>
       </c>
       <c r="E91" s="1" t="str"/>
     </row>
-    <row r="92">
-      <c r="A92" s="3">
+    <row customHeight="true" ht="21" r="92">
+      <c r="A92" s="2">
         <v>20025</v>
       </c>
-      <c r="B92" s="3" t="str">
+      <c r="B92" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" s="2" t="str">
         <v>使用</v>
       </c>
-      <c r="D92" s="3" t="str">
+      <c r="D92" s="2" t="str">
         <v>Text_Content_20025</v>
       </c>
       <c r="E92" s="1" t="str"/>
     </row>
-    <row r="93">
-      <c r="A93" s="3">
+    <row customHeight="true" ht="21" r="93">
+      <c r="A93" s="2">
         <v>20026</v>
       </c>
-      <c r="B93" s="2" t="str">
+      <c r="B93" s="3" t="str">
         <v>地图选择界面</v>
       </c>
-      <c r="C93" s="2" t="str">
+      <c r="C93" s="3" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="D93" s="2" t="str">
+      <c r="D93" s="3" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="E93" s="12" t="str"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3">
+      <c r="E93" s="6" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="94">
+      <c r="A94" s="2">
         <v>20027</v>
       </c>
-      <c r="B94" s="2" t="str">
+      <c r="B94" s="3" t="str">
         <v>地图选择界面</v>
       </c>
-      <c r="C94" s="2" t="str">
+      <c r="C94" s="3" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="D94" s="2" t="str">
+      <c r="D94" s="3" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="E94" s="12" t="str"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3">
+      <c r="E94" s="6" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="95">
+      <c r="A95" s="2">
         <v>20028</v>
       </c>
-      <c r="B95" s="2" t="str">
+      <c r="B95" s="3" t="str">
         <v>大厅界面</v>
       </c>
-      <c r="C95" s="2" t="str">
+      <c r="C95" s="3" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="D95" s="2" t="str">
+      <c r="D95" s="3" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="E95" s="12" t="str"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3">
+      <c r="E95" s="6" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="96">
+      <c r="A96" s="2">
         <v>20029</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B96" s="2" t="str">
         <v>商店界面</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="2" t="str">
         <v>特效</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="3" t="str">
         <v>Text_Content_20029</v>
       </c>
       <c r="E96" s="1" t="str"/>
     </row>
-    <row r="97">
-      <c r="A97" s="3">
+    <row customHeight="true" ht="21" r="97">
+      <c r="A97" s="2">
         <v>20030</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B97" s="2" t="str">
         <v>大厅界面</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="2" t="str">
         <v>免费领取</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="3" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="E97" s="3" t="str"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="3">
+      <c r="E97" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="98">
+      <c r="A98" s="2">
         <v>20031</v>
       </c>
       <c r="B98" s="1" t="str">
@@ -2215,13 +2224,13 @@
       <c r="C98" s="1" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="D98" s="2" t="str">
+      <c r="D98" s="3" t="str">
         <v>Text_Content_20031</v>
       </c>
       <c r="E98" s="1" t="str"/>
     </row>
-    <row r="99">
-      <c r="A99" s="3">
+    <row customHeight="true" ht="21" r="99">
+      <c r="A99" s="2">
         <v>20032</v>
       </c>
       <c r="B99" s="1" t="str">
@@ -2230,12 +2239,12 @@
       <c r="C99" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="3" t="str">
         <v>Text_Content_20032</v>
       </c>
       <c r="E99" s="1" t="str"/>
     </row>
-    <row r="100">
+    <row customHeight="true" ht="21" r="100">
       <c r="A100" s="1">
         <v>20033</v>
       </c>
@@ -2245,27 +2254,27 @@
       <c r="C100" s="1" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="3" t="str">
         <v>Text_Content_20033</v>
       </c>
       <c r="E100" s="1" t="str"/>
     </row>
-    <row r="101">
+    <row customHeight="true" ht="21" r="101">
       <c r="A101" s="1">
         <v>20034</v>
       </c>
       <c r="B101" s="1" t="str">
         <v>胜利展示界面</v>
       </c>
-      <c r="C101" s="13" t="str">
+      <c r="C101" s="9" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="D101" s="12" t="str">
+      <c r="D101" s="6" t="str">
         <v>Text_Content_20034</v>
       </c>
       <c r="E101" s="1" t="str"/>
     </row>
-    <row r="102">
+    <row customHeight="true" ht="21" r="102">
       <c r="A102" s="1">
         <v>20035</v>
       </c>
@@ -2280,7 +2289,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103">
+    <row customHeight="true" ht="21" r="103">
       <c r="A103" s="1">
         <v>20036</v>
       </c>
@@ -2292,12 +2301,12 @@
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" s="3" t="str">
         <v>Text_Content_20036</v>
       </c>
       <c r="E103" s="1" t="str"/>
     </row>
-    <row r="104">
+    <row customHeight="true" ht="21" r="104">
       <c r="A104" s="1">
         <v>20037</v>
       </c>
@@ -2309,12 +2318,12 @@
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="D104" s="2" t="str">
+      <c r="D104" s="3" t="str">
         <v>Text_Content_20037</v>
       </c>
       <c r="E104" s="1" t="str"/>
     </row>
-    <row r="105">
+    <row customHeight="true" ht="21" r="105">
       <c r="A105" s="1">
         <v>20038</v>
       </c>
@@ -2327,12 +2336,12 @@
 3.假如你是平民，那么努力活下来吧
 4.不要相信任何人</v>
       </c>
-      <c r="D105" s="2" t="str">
+      <c r="D105" s="3" t="str">
         <v>Text_Content_20038</v>
       </c>
       <c r="E105" s="1" t="str"/>
     </row>
-    <row r="106">
+    <row customHeight="true" ht="21" r="106">
       <c r="A106" s="1">
         <v>20039</v>
       </c>
@@ -2342,12 +2351,12 @@
       <c r="C106" s="1" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="D106" s="2" t="str">
+      <c r="D106" s="3" t="str">
         <v>Text_Content_20039</v>
       </c>
       <c r="E106" s="1" t="str"/>
     </row>
-    <row r="107">
+    <row customHeight="true" ht="21" r="107">
       <c r="A107" s="1">
         <v>20040</v>
       </c>
@@ -2357,12 +2366,12 @@
       <c r="C107" s="1" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="D107" s="2" t="str">
+      <c r="D107" s="3" t="str">
         <v>Text_Content_20040</v>
       </c>
       <c r="E107" s="1" t="str"/>
     </row>
-    <row r="108">
+    <row customHeight="true" ht="21" r="108">
       <c r="A108" s="1">
         <v>20041</v>
       </c>
@@ -2372,12 +2381,12 @@
       <c r="C108" s="1" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="D108" s="2" t="str">
+      <c r="D108" s="3" t="str">
         <v>Text_Content_20041</v>
       </c>
       <c r="E108" s="1" t="str"/>
     </row>
-    <row r="109">
+    <row customHeight="true" ht="21" r="109">
       <c r="A109" s="1">
         <v>20042</v>
       </c>
@@ -2387,12 +2396,12 @@
       <c r="C109" s="1" t="str">
         <v>学生</v>
       </c>
-      <c r="D109" s="2" t="str">
+      <c r="D109" s="3" t="str">
         <v>Text_Content_20042</v>
       </c>
       <c r="E109" s="1" t="str"/>
     </row>
-    <row r="110">
+    <row customHeight="true" ht="21" r="110">
       <c r="A110" s="1">
         <v>20043</v>
       </c>
@@ -2402,12 +2411,12 @@
       <c r="C110" s="1" t="str">
         <v>侦探</v>
       </c>
-      <c r="D110" s="2" t="str">
+      <c r="D110" s="3" t="str">
         <v>Text_Content_20043</v>
       </c>
       <c r="E110" s="1" t="str"/>
     </row>
-    <row r="111">
+    <row customHeight="true" ht="21" r="111">
       <c r="A111" s="1">
         <v>20044</v>
       </c>
@@ -2417,12 +2426,12 @@
       <c r="C111" s="1" t="str">
         <v>凶手</v>
       </c>
-      <c r="D111" s="2" t="str">
+      <c r="D111" s="3" t="str">
         <v>Text_Content_20044</v>
       </c>
       <c r="E111" s="1" t="str"/>
     </row>
-    <row r="112">
+    <row customHeight="true" ht="21" r="112">
       <c r="A112" s="1">
         <v>20045</v>
       </c>
@@ -2432,12 +2441,12 @@
       <c r="C112" s="1" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="D112" s="2" t="str">
+      <c r="D112" s="3" t="str">
         <v>Text_Content_20045</v>
       </c>
       <c r="E112" s="1" t="str"/>
     </row>
-    <row r="113">
+    <row customHeight="true" ht="21" r="113">
       <c r="A113" s="1">
         <v>20046</v>
       </c>
@@ -2447,12 +2456,12 @@
       <c r="C113" s="1" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="D113" s="2" t="str">
+      <c r="D113" s="3" t="str">
         <v>Text_Content_20046</v>
       </c>
       <c r="E113" s="1" t="str"/>
     </row>
-    <row r="114">
+    <row customHeight="true" ht="21" r="114">
       <c r="A114" s="1">
         <v>20047</v>
       </c>
@@ -2462,12 +2471,12 @@
       <c r="C114" s="1" t="str">
         <v>准星图标</v>
       </c>
-      <c r="D114" s="2" t="str">
+      <c r="D114" s="3" t="str">
         <v>Text_Content_20047</v>
       </c>
       <c r="E114" s="1" t="str"/>
     </row>
-    <row r="115">
+    <row customHeight="true" ht="21" r="115">
       <c r="A115" s="1">
         <v>20048</v>
       </c>
@@ -2477,12 +2486,12 @@
       <c r="C115" s="1" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="D115" s="2" t="str">
+      <c r="D115" s="3" t="str">
         <v>Text_Content_20048</v>
       </c>
       <c r="E115" s="1" t="str"/>
     </row>
-    <row r="116">
+    <row customHeight="true" ht="21" r="116">
       <c r="A116" s="1">
         <v>20049</v>
       </c>
@@ -2492,12 +2501,12 @@
       <c r="C116" s="1" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="D116" s="2" t="str">
+      <c r="D116" s="3" t="str">
         <v>Text_Content_20049</v>
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117">
+    <row customHeight="true" ht="21" r="117">
       <c r="A117" s="1">
         <v>20050</v>
       </c>
@@ -2507,132 +2516,132 @@
       <c r="C117" s="1" t="str">
         <v>收起武器</v>
       </c>
-      <c r="D117" s="2" t="str">
+      <c r="D117" s="3" t="str">
         <v>Text_Content_20050</v>
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118">
+    <row customHeight="true" ht="21" r="118">
       <c r="A118" s="1">
         <v>20051</v>
       </c>
       <c r="B118" s="1" t="str">
         <v>商店会员相关</v>
       </c>
-      <c r="C118" s="7" t="str">
+      <c r="C118" s="10" t="str">
         <v>暂无获取途径</v>
       </c>
-      <c r="D118" s="2" t="str">
+      <c r="D118" s="3" t="str">
         <v>Text_Content_20051</v>
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119">
+    <row customHeight="true" ht="21" r="119">
       <c r="A119" s="1">
         <v>20052</v>
       </c>
       <c r="B119" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="C119" s="7" t="str">
+      <c r="C119" s="10" t="str">
         <v>兑换</v>
       </c>
-      <c r="D119" s="2" t="str">
+      <c r="D119" s="3" t="str">
         <v>Text_Content_20052</v>
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120">
+    <row customHeight="true" ht="21" r="120">
       <c r="A120" s="1">
         <v>20053</v>
       </c>
       <c r="B120" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="C120" s="7" t="str">
+      <c r="C120" s="10" t="str">
         <v>跳转</v>
       </c>
-      <c r="D120" s="2" t="str">
+      <c r="D120" s="3" t="str">
         <v>Text_Content_20053</v>
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121">
+    <row customHeight="true" ht="21" r="121">
       <c r="A121" s="1">
         <v>20054</v>
       </c>
       <c r="B121" s="1" t="str">
         <v>大会员商店提示</v>
       </c>
-      <c r="C121" s="7" t="str">
+      <c r="C121" s="10" t="str">
         <v>会员特权激活中</v>
       </c>
-      <c r="D121" s="2" t="str">
+      <c r="D121" s="3" t="str">
         <v>Text_Content_20054</v>
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122">
+    <row customHeight="true" ht="21" r="122">
       <c r="A122" s="1">
         <v>20055</v>
       </c>
       <c r="B122" s="1" t="str">
         <v>大会员商店提示</v>
       </c>
-      <c r="C122" s="7" t="str">
+      <c r="C122" s="10" t="str">
         <v>剩余激活时间{0}</v>
       </c>
-      <c r="D122" s="2" t="str">
+      <c r="D122" s="3" t="str">
         <v>Text_Content_20055</v>
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123">
+    <row customHeight="true" ht="21" r="123">
       <c r="A123" s="1">
         <v>20056</v>
       </c>
       <c r="B123" s="1" t="str">
         <v>大会员商店提示</v>
       </c>
-      <c r="C123" s="7" t="str">
+      <c r="C123" s="10" t="str">
         <v>尚未激活会员特权</v>
       </c>
-      <c r="D123" s="2" t="str">
+      <c r="D123" s="3" t="str">
         <v>Text_Content_20056</v>
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124">
+    <row customHeight="true" ht="21" r="124">
       <c r="A124" s="1">
         <v>20057</v>
       </c>
       <c r="B124" s="1" t="str">
         <v>大会员商店提示</v>
       </c>
-      <c r="C124" s="7" t="str">
+      <c r="C124" s="10" t="str">
         <v>尚未激活超级特权</v>
       </c>
-      <c r="D124" s="2" t="str">
+      <c r="D124" s="3" t="str">
         <v>Text_Content_20057</v>
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125">
+    <row customHeight="true" ht="21" r="125">
       <c r="A125" s="1">
         <v>20058</v>
       </c>
       <c r="B125" s="1" t="str">
         <v>大会员商店提示</v>
       </c>
-      <c r="C125" s="7" t="str">
+      <c r="C125" s="10" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
-      <c r="D125" s="2" t="str">
+      <c r="D125" s="3" t="str">
         <v>Text_Content_20058</v>
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126">
+    <row customHeight="true" ht="21" r="126">
       <c r="A126" s="1">
         <v>20059</v>
       </c>
@@ -2642,12 +2651,12 @@
       <c r="C126" s="14" t="str">
         <v>会员特权</v>
       </c>
-      <c r="D126" s="2" t="str">
+      <c r="D126" s="3" t="str">
         <v>Text_Content_20059</v>
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127">
+    <row customHeight="true" ht="21" r="127">
       <c r="A127" s="1">
         <v>20060</v>
       </c>
@@ -2657,764 +2666,772 @@
       <c r="C127" s="1" t="str">
         <v>超级特权</v>
       </c>
-      <c r="D127" s="2" t="str">
+      <c r="D127" s="3" t="str">
         <v>Text_Content_20060</v>
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+    <row customHeight="true" ht="21" r="128">
+      <c r="A128" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <v>皮肤</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <v>皮肤</v>
+      </c>
+      <c r="D128" s="11" t="str">
+        <v>Text_Shop_Skin</v>
+      </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129">
+    <row customHeight="true" ht="21" r="129">
       <c r="A129" s="1" t="str"/>
       <c r="B129" s="1" t="str"/>
       <c r="C129" s="1" t="str"/>
       <c r="D129" s="1" t="str"/>
       <c r="E129" s="1" t="str"/>
     </row>
-    <row r="130">
+    <row customHeight="true" ht="21" r="130">
       <c r="A130" s="1" t="str"/>
       <c r="B130" s="1" t="str"/>
       <c r="C130" s="1" t="str"/>
       <c r="D130" s="1" t="str"/>
       <c r="E130" s="1" t="str"/>
     </row>
-    <row r="131">
+    <row customHeight="true" ht="21" r="131">
       <c r="A131" s="1" t="str"/>
       <c r="B131" s="1" t="str"/>
       <c r="C131" s="1" t="str"/>
       <c r="D131" s="1" t="str"/>
       <c r="E131" s="1" t="str"/>
     </row>
-    <row r="132">
+    <row customHeight="true" ht="21" r="132">
       <c r="A132" s="1" t="str"/>
       <c r="B132" s="1" t="str"/>
       <c r="C132" s="1" t="str"/>
       <c r="D132" s="1" t="str"/>
       <c r="E132" s="1" t="str"/>
     </row>
-    <row r="133">
+    <row customHeight="true" ht="21" r="133">
       <c r="A133" s="1" t="str"/>
       <c r="B133" s="1" t="str"/>
       <c r="C133" s="1" t="str"/>
       <c r="D133" s="1" t="str"/>
       <c r="E133" s="1" t="str"/>
     </row>
-    <row r="134">
+    <row customHeight="true" ht="21" r="134">
       <c r="A134" s="1" t="str"/>
       <c r="B134" s="1" t="str"/>
       <c r="C134" s="1" t="str"/>
       <c r="D134" s="1" t="str"/>
       <c r="E134" s="1" t="str"/>
     </row>
-    <row r="135">
+    <row customHeight="true" ht="21" r="135">
       <c r="A135" s="1" t="str"/>
       <c r="B135" s="1" t="str"/>
       <c r="C135" s="1" t="str"/>
       <c r="D135" s="1" t="str"/>
       <c r="E135" s="1" t="str"/>
     </row>
-    <row r="136">
+    <row customHeight="true" ht="21" r="136">
       <c r="A136" s="1" t="str"/>
       <c r="B136" s="1" t="str"/>
       <c r="C136" s="1" t="str"/>
       <c r="D136" s="1" t="str"/>
       <c r="E136" s="1" t="str"/>
     </row>
-    <row r="137">
+    <row customHeight="true" ht="21" r="137">
       <c r="A137" s="1" t="str"/>
       <c r="B137" s="1" t="str"/>
       <c r="C137" s="1" t="str"/>
       <c r="D137" s="1" t="str"/>
       <c r="E137" s="1" t="str"/>
     </row>
-    <row r="138">
+    <row customHeight="true" ht="21" r="138">
       <c r="A138" s="1" t="str"/>
       <c r="B138" s="1" t="str"/>
       <c r="C138" s="1" t="str"/>
       <c r="D138" s="1" t="str"/>
       <c r="E138" s="1" t="str"/>
     </row>
-    <row r="139">
+    <row customHeight="true" ht="21" r="139">
       <c r="A139" s="1" t="str"/>
       <c r="B139" s="1" t="str"/>
       <c r="C139" s="1" t="str"/>
       <c r="D139" s="1" t="str"/>
       <c r="E139" s="1" t="str"/>
     </row>
-    <row r="140">
+    <row customHeight="true" ht="21" r="140">
       <c r="A140" s="1" t="str"/>
       <c r="B140" s="1" t="str"/>
       <c r="C140" s="1" t="str"/>
       <c r="D140" s="1" t="str"/>
       <c r="E140" s="1" t="str"/>
     </row>
-    <row r="141">
+    <row customHeight="true" ht="21" r="141">
       <c r="A141" s="1" t="str"/>
       <c r="B141" s="1" t="str"/>
       <c r="C141" s="1" t="str"/>
       <c r="D141" s="1" t="str"/>
       <c r="E141" s="1" t="str"/>
     </row>
-    <row r="142">
+    <row customHeight="true" ht="21" r="142">
       <c r="A142" s="1" t="str"/>
       <c r="B142" s="1" t="str"/>
       <c r="C142" s="1" t="str"/>
       <c r="D142" s="1" t="str"/>
       <c r="E142" s="1" t="str"/>
     </row>
-    <row r="143">
+    <row customHeight="true" ht="21" r="143">
       <c r="A143" s="1" t="str"/>
       <c r="B143" s="1" t="str"/>
       <c r="C143" s="1" t="str"/>
       <c r="D143" s="1" t="str"/>
       <c r="E143" s="1" t="str"/>
     </row>
-    <row r="144">
+    <row customHeight="true" ht="21" r="144">
       <c r="A144" s="1" t="str"/>
       <c r="B144" s="1" t="str"/>
       <c r="C144" s="1" t="str"/>
       <c r="D144" s="1" t="str"/>
       <c r="E144" s="1" t="str"/>
     </row>
-    <row r="145">
+    <row customHeight="true" ht="21" r="145">
       <c r="A145" s="1" t="str"/>
       <c r="B145" s="1" t="str"/>
       <c r="C145" s="1" t="str"/>
       <c r="D145" s="1" t="str"/>
       <c r="E145" s="1" t="str"/>
     </row>
-    <row r="146">
+    <row customHeight="true" ht="21" r="146">
       <c r="A146" s="1" t="str"/>
       <c r="B146" s="1" t="str"/>
       <c r="C146" s="1" t="str"/>
       <c r="D146" s="1" t="str"/>
       <c r="E146" s="1" t="str"/>
     </row>
-    <row r="147">
+    <row customHeight="true" ht="21" r="147">
       <c r="A147" s="1" t="str"/>
       <c r="B147" s="1" t="str"/>
       <c r="C147" s="1" t="str"/>
       <c r="D147" s="1" t="str"/>
       <c r="E147" s="1" t="str"/>
     </row>
-    <row r="148">
+    <row customHeight="true" ht="21" r="148">
       <c r="A148" s="1" t="str"/>
       <c r="B148" s="1" t="str"/>
       <c r="C148" s="1" t="str"/>
       <c r="D148" s="1" t="str"/>
       <c r="E148" s="1" t="str"/>
     </row>
-    <row r="149">
+    <row customHeight="true" ht="21" r="149">
       <c r="A149" s="1" t="str"/>
       <c r="B149" s="1" t="str"/>
       <c r="C149" s="1" t="str"/>
       <c r="D149" s="1" t="str"/>
       <c r="E149" s="1" t="str"/>
     </row>
-    <row r="150">
+    <row customHeight="true" ht="21" r="150">
       <c r="A150" s="1" t="str"/>
       <c r="B150" s="1" t="str"/>
       <c r="C150" s="1" t="str"/>
       <c r="D150" s="1" t="str"/>
       <c r="E150" s="1" t="str"/>
     </row>
-    <row r="151">
+    <row customHeight="true" ht="21" r="151">
       <c r="A151" s="1" t="str"/>
       <c r="B151" s="1" t="str"/>
       <c r="C151" s="1" t="str"/>
       <c r="D151" s="1" t="str"/>
       <c r="E151" s="1" t="str"/>
     </row>
-    <row r="152">
+    <row customHeight="true" ht="21" r="152">
       <c r="A152" s="1" t="str"/>
       <c r="B152" s="1" t="str"/>
       <c r="C152" s="1" t="str"/>
       <c r="D152" s="1" t="str"/>
       <c r="E152" s="1" t="str"/>
     </row>
-    <row r="153">
+    <row customHeight="true" ht="21" r="153">
       <c r="A153" s="1" t="str"/>
       <c r="B153" s="1" t="str"/>
       <c r="C153" s="1" t="str"/>
       <c r="D153" s="1" t="str"/>
       <c r="E153" s="1" t="str"/>
     </row>
-    <row r="154">
+    <row customHeight="true" ht="21" r="154">
       <c r="A154" s="1" t="str"/>
       <c r="B154" s="1" t="str"/>
       <c r="C154" s="1" t="str"/>
       <c r="D154" s="1" t="str"/>
       <c r="E154" s="1" t="str"/>
     </row>
-    <row r="155">
+    <row customHeight="true" ht="21" r="155">
       <c r="A155" s="1" t="str"/>
       <c r="B155" s="1" t="str"/>
       <c r="C155" s="1" t="str"/>
       <c r="D155" s="1" t="str"/>
       <c r="E155" s="1" t="str"/>
     </row>
-    <row r="156">
+    <row customHeight="true" ht="21" r="156">
       <c r="A156" s="1" t="str"/>
       <c r="B156" s="1" t="str"/>
       <c r="C156" s="1" t="str"/>
       <c r="D156" s="1" t="str"/>
       <c r="E156" s="1" t="str"/>
     </row>
-    <row r="157">
+    <row customHeight="true" ht="21" r="157">
       <c r="A157" s="1" t="str"/>
       <c r="B157" s="1" t="str"/>
       <c r="C157" s="1" t="str"/>
       <c r="D157" s="1" t="str"/>
       <c r="E157" s="1" t="str"/>
     </row>
-    <row r="158">
+    <row customHeight="true" ht="21" r="158">
       <c r="A158" s="1" t="str"/>
       <c r="B158" s="1" t="str"/>
       <c r="C158" s="1" t="str"/>
       <c r="D158" s="1" t="str"/>
       <c r="E158" s="1" t="str"/>
     </row>
-    <row r="159">
+    <row customHeight="true" ht="21" r="159">
       <c r="A159" s="1" t="str"/>
       <c r="B159" s="1" t="str"/>
       <c r="C159" s="1" t="str"/>
       <c r="D159" s="1" t="str"/>
       <c r="E159" s="1" t="str"/>
     </row>
-    <row r="160">
+    <row customHeight="true" ht="21" r="160">
       <c r="A160" s="1" t="str"/>
       <c r="B160" s="1" t="str"/>
       <c r="C160" s="1" t="str"/>
       <c r="D160" s="1" t="str"/>
       <c r="E160" s="1" t="str"/>
     </row>
-    <row r="161">
+    <row customHeight="true" ht="21" r="161">
       <c r="A161" s="1" t="str"/>
       <c r="B161" s="1" t="str"/>
       <c r="C161" s="1" t="str"/>
       <c r="D161" s="1" t="str"/>
       <c r="E161" s="1" t="str"/>
     </row>
-    <row r="162">
+    <row customHeight="true" ht="21" r="162">
       <c r="A162" s="1" t="str"/>
       <c r="B162" s="1" t="str"/>
       <c r="C162" s="1" t="str"/>
       <c r="D162" s="1" t="str"/>
       <c r="E162" s="1" t="str"/>
     </row>
-    <row r="163">
+    <row customHeight="true" ht="21" r="163">
       <c r="A163" s="1" t="str"/>
       <c r="B163" s="1" t="str"/>
       <c r="C163" s="1" t="str"/>
       <c r="D163" s="1" t="str"/>
       <c r="E163" s="1" t="str"/>
     </row>
-    <row r="164">
+    <row customHeight="true" ht="21" r="164">
       <c r="A164" s="1" t="str"/>
       <c r="B164" s="1" t="str"/>
       <c r="C164" s="1" t="str"/>
       <c r="D164" s="1" t="str"/>
       <c r="E164" s="1" t="str"/>
     </row>
-    <row r="165">
+    <row customHeight="true" ht="21" r="165">
       <c r="A165" s="1" t="str"/>
       <c r="B165" s="1" t="str"/>
       <c r="C165" s="1" t="str"/>
       <c r="D165" s="1" t="str"/>
       <c r="E165" s="1" t="str"/>
     </row>
-    <row r="166">
+    <row customHeight="true" ht="21" r="166">
       <c r="A166" s="1" t="str"/>
       <c r="B166" s="1" t="str"/>
       <c r="C166" s="1" t="str"/>
       <c r="D166" s="1" t="str"/>
       <c r="E166" s="1" t="str"/>
     </row>
-    <row r="167">
+    <row customHeight="true" ht="21" r="167">
       <c r="A167" s="1" t="str"/>
       <c r="B167" s="1" t="str"/>
       <c r="C167" s="1" t="str"/>
       <c r="D167" s="1" t="str"/>
       <c r="E167" s="1" t="str"/>
     </row>
-    <row r="168">
+    <row customHeight="true" ht="21" r="168">
       <c r="A168" s="1" t="str"/>
       <c r="B168" s="1" t="str"/>
       <c r="C168" s="1" t="str"/>
       <c r="D168" s="1" t="str"/>
       <c r="E168" s="1" t="str"/>
     </row>
-    <row r="169">
+    <row customHeight="true" ht="21" r="169">
       <c r="A169" s="1" t="str"/>
       <c r="B169" s="1" t="str"/>
       <c r="C169" s="1" t="str"/>
       <c r="D169" s="1" t="str"/>
       <c r="E169" s="1" t="str"/>
     </row>
-    <row r="170">
+    <row customHeight="true" ht="21" r="170">
       <c r="A170" s="1" t="str"/>
       <c r="B170" s="1" t="str"/>
       <c r="C170" s="1" t="str"/>
       <c r="D170" s="1" t="str"/>
       <c r="E170" s="1" t="str"/>
     </row>
-    <row r="171">
+    <row customHeight="true" ht="21" r="171">
       <c r="A171" s="1" t="str"/>
       <c r="B171" s="1" t="str"/>
       <c r="C171" s="1" t="str"/>
       <c r="D171" s="1" t="str"/>
       <c r="E171" s="1" t="str"/>
     </row>
-    <row r="172">
+    <row customHeight="true" ht="21" r="172">
       <c r="A172" s="1" t="str"/>
       <c r="B172" s="1" t="str"/>
       <c r="C172" s="1" t="str"/>
       <c r="D172" s="1" t="str"/>
       <c r="E172" s="1" t="str"/>
     </row>
-    <row r="173">
+    <row customHeight="true" ht="21" r="173">
       <c r="A173" s="1" t="str"/>
       <c r="B173" s="1" t="str"/>
       <c r="C173" s="1" t="str"/>
       <c r="D173" s="1" t="str"/>
       <c r="E173" s="1" t="str"/>
     </row>
-    <row r="174">
+    <row customHeight="true" ht="21" r="174">
       <c r="A174" s="1" t="str"/>
       <c r="B174" s="1" t="str"/>
       <c r="C174" s="1" t="str"/>
       <c r="D174" s="1" t="str"/>
       <c r="E174" s="1" t="str"/>
     </row>
-    <row r="175">
+    <row customHeight="true" ht="21" r="175">
       <c r="A175" s="1" t="str"/>
       <c r="B175" s="1" t="str"/>
       <c r="C175" s="1" t="str"/>
       <c r="D175" s="1" t="str"/>
       <c r="E175" s="1" t="str"/>
     </row>
-    <row r="176">
+    <row customHeight="true" ht="21" r="176">
       <c r="A176" s="1" t="str"/>
       <c r="B176" s="1" t="str"/>
       <c r="C176" s="1" t="str"/>
       <c r="D176" s="1" t="str"/>
       <c r="E176" s="1" t="str"/>
     </row>
-    <row r="177">
+    <row customHeight="true" ht="21" r="177">
       <c r="A177" s="1" t="str"/>
       <c r="B177" s="1" t="str"/>
       <c r="C177" s="1" t="str"/>
       <c r="D177" s="1" t="str"/>
       <c r="E177" s="1" t="str"/>
     </row>
-    <row r="178">
+    <row customHeight="true" ht="21" r="178">
       <c r="A178" s="1" t="str"/>
       <c r="B178" s="1" t="str"/>
       <c r="C178" s="1" t="str"/>
       <c r="D178" s="1" t="str"/>
       <c r="E178" s="1" t="str"/>
     </row>
-    <row r="179">
+    <row customHeight="true" ht="21" r="179">
       <c r="A179" s="1" t="str"/>
       <c r="B179" s="1" t="str"/>
       <c r="C179" s="1" t="str"/>
       <c r="D179" s="1" t="str"/>
       <c r="E179" s="1" t="str"/>
     </row>
-    <row r="180">
+    <row customHeight="true" ht="21" r="180">
       <c r="A180" s="1" t="str"/>
       <c r="B180" s="1" t="str"/>
       <c r="C180" s="1" t="str"/>
       <c r="D180" s="1" t="str"/>
       <c r="E180" s="1" t="str"/>
     </row>
-    <row r="181">
+    <row customHeight="true" ht="21" r="181">
       <c r="A181" s="1" t="str"/>
       <c r="B181" s="1" t="str"/>
       <c r="C181" s="1" t="str"/>
       <c r="D181" s="1" t="str"/>
       <c r="E181" s="1" t="str"/>
     </row>
-    <row r="182">
+    <row customHeight="true" ht="21" r="182">
       <c r="A182" s="1" t="str"/>
       <c r="B182" s="1" t="str"/>
       <c r="C182" s="1" t="str"/>
       <c r="D182" s="1" t="str"/>
       <c r="E182" s="1" t="str"/>
     </row>
-    <row r="183">
+    <row customHeight="true" ht="21" r="183">
       <c r="A183" s="1" t="str"/>
       <c r="B183" s="1" t="str"/>
       <c r="C183" s="1" t="str"/>
       <c r="D183" s="1" t="str"/>
       <c r="E183" s="1" t="str"/>
     </row>
-    <row r="184">
+    <row customHeight="true" ht="21" r="184">
       <c r="A184" s="1" t="str"/>
       <c r="B184" s="1" t="str"/>
       <c r="C184" s="1" t="str"/>
       <c r="D184" s="1" t="str"/>
       <c r="E184" s="1" t="str"/>
     </row>
-    <row r="185">
+    <row customHeight="true" ht="21" r="185">
       <c r="A185" s="1" t="str"/>
       <c r="B185" s="1" t="str"/>
       <c r="C185" s="1" t="str"/>
       <c r="D185" s="1" t="str"/>
       <c r="E185" s="1" t="str"/>
     </row>
-    <row r="186">
+    <row customHeight="true" ht="21" r="186">
       <c r="A186" s="1" t="str"/>
       <c r="B186" s="1" t="str"/>
       <c r="C186" s="1" t="str"/>
       <c r="D186" s="1" t="str"/>
       <c r="E186" s="1" t="str"/>
     </row>
-    <row r="187">
+    <row customHeight="true" ht="21" r="187">
       <c r="A187" s="1" t="str"/>
       <c r="B187" s="1" t="str"/>
       <c r="C187" s="1" t="str"/>
       <c r="D187" s="1" t="str"/>
       <c r="E187" s="1" t="str"/>
     </row>
-    <row r="188">
+    <row customHeight="true" ht="21" r="188">
       <c r="A188" s="1" t="str"/>
       <c r="B188" s="1" t="str"/>
       <c r="C188" s="1" t="str"/>
       <c r="D188" s="1" t="str"/>
       <c r="E188" s="1" t="str"/>
     </row>
-    <row r="189">
+    <row customHeight="true" ht="21" r="189">
       <c r="A189" s="1" t="str"/>
       <c r="B189" s="1" t="str"/>
       <c r="C189" s="1" t="str"/>
       <c r="D189" s="1" t="str"/>
       <c r="E189" s="1" t="str"/>
     </row>
-    <row r="190">
+    <row customHeight="true" ht="21" r="190">
       <c r="A190" s="1" t="str"/>
       <c r="B190" s="1" t="str"/>
       <c r="C190" s="1" t="str"/>
       <c r="D190" s="1" t="str"/>
       <c r="E190" s="1" t="str"/>
     </row>
-    <row r="191">
+    <row customHeight="true" ht="21" r="191">
       <c r="A191" s="1" t="str"/>
       <c r="B191" s="1" t="str"/>
       <c r="C191" s="1" t="str"/>
       <c r="D191" s="1" t="str"/>
       <c r="E191" s="1" t="str"/>
     </row>
-    <row r="192">
+    <row customHeight="true" ht="21" r="192">
       <c r="A192" s="1" t="str"/>
       <c r="B192" s="1" t="str"/>
       <c r="C192" s="1" t="str"/>
       <c r="D192" s="1" t="str"/>
       <c r="E192" s="1" t="str"/>
     </row>
-    <row r="193">
+    <row customHeight="true" ht="21" r="193">
       <c r="A193" s="1" t="str"/>
       <c r="B193" s="1" t="str"/>
       <c r="C193" s="1" t="str"/>
       <c r="D193" s="1" t="str"/>
       <c r="E193" s="1" t="str"/>
     </row>
-    <row r="194">
+    <row customHeight="true" ht="21" r="194">
       <c r="A194" s="1" t="str"/>
       <c r="B194" s="1" t="str"/>
       <c r="C194" s="1" t="str"/>
       <c r="D194" s="1" t="str"/>
       <c r="E194" s="1" t="str"/>
     </row>
-    <row r="195">
+    <row customHeight="true" ht="21" r="195">
       <c r="A195" s="1" t="str"/>
       <c r="B195" s="1" t="str"/>
       <c r="C195" s="1" t="str"/>
       <c r="D195" s="1" t="str"/>
       <c r="E195" s="1" t="str"/>
     </row>
-    <row r="196">
+    <row customHeight="true" ht="21" r="196">
       <c r="A196" s="1" t="str"/>
       <c r="B196" s="1" t="str"/>
       <c r="C196" s="1" t="str"/>
       <c r="D196" s="1" t="str"/>
       <c r="E196" s="1" t="str"/>
     </row>
-    <row r="197">
+    <row customHeight="true" ht="21" r="197">
       <c r="A197" s="1" t="str"/>
       <c r="B197" s="1" t="str"/>
       <c r="C197" s="1" t="str"/>
       <c r="D197" s="1" t="str"/>
       <c r="E197" s="1" t="str"/>
     </row>
-    <row r="198">
+    <row customHeight="true" ht="21" r="198">
       <c r="A198" s="1" t="str"/>
       <c r="B198" s="1" t="str"/>
       <c r="C198" s="1" t="str"/>
       <c r="D198" s="1" t="str"/>
       <c r="E198" s="1" t="str"/>
     </row>
-    <row r="199">
+    <row customHeight="true" ht="21" r="199">
       <c r="A199" s="1" t="str"/>
       <c r="B199" s="1" t="str"/>
       <c r="C199" s="1" t="str"/>
       <c r="D199" s="1" t="str"/>
       <c r="E199" s="1" t="str"/>
     </row>
-    <row r="200">
+    <row customHeight="true" ht="21" r="200">
       <c r="A200" s="1" t="str"/>
       <c r="B200" s="1" t="str"/>
       <c r="C200" s="1" t="str"/>
       <c r="D200" s="1" t="str"/>
       <c r="E200" s="1" t="str"/>
     </row>
-    <row r="201">
+    <row customHeight="true" ht="21" r="201">
       <c r="A201" s="1" t="str"/>
       <c r="B201" s="1" t="str"/>
       <c r="C201" s="1" t="str"/>
       <c r="D201" s="1" t="str"/>
       <c r="E201" s="1" t="str"/>
     </row>
-    <row r="202">
+    <row customHeight="true" ht="21" r="202">
       <c r="A202" s="1" t="str"/>
       <c r="B202" s="1" t="str"/>
       <c r="C202" s="1" t="str"/>
       <c r="D202" s="1" t="str"/>
       <c r="E202" s="1" t="str"/>
     </row>
-    <row r="203">
+    <row customHeight="true" ht="21" r="203">
       <c r="A203" s="1" t="str"/>
       <c r="B203" s="1" t="str"/>
       <c r="C203" s="1" t="str"/>
       <c r="D203" s="1" t="str"/>
       <c r="E203" s="1" t="str"/>
     </row>
-    <row r="204">
+    <row customHeight="true" ht="21" r="204">
       <c r="A204" s="1" t="str"/>
       <c r="B204" s="1" t="str"/>
       <c r="C204" s="1" t="str"/>
       <c r="D204" s="1" t="str"/>
       <c r="E204" s="1" t="str"/>
     </row>
-    <row r="205">
+    <row customHeight="true" ht="21" r="205">
       <c r="A205" s="1" t="str"/>
       <c r="B205" s="1" t="str"/>
       <c r="C205" s="1" t="str"/>
       <c r="D205" s="1" t="str"/>
       <c r="E205" s="1" t="str"/>
     </row>
-    <row r="206">
+    <row customHeight="true" ht="21" r="206">
       <c r="A206" s="1" t="str"/>
       <c r="B206" s="1" t="str"/>
       <c r="C206" s="1" t="str"/>
       <c r="D206" s="1" t="str"/>
       <c r="E206" s="1" t="str"/>
     </row>
-    <row r="207">
+    <row customHeight="true" ht="21" r="207">
       <c r="A207" s="1" t="str"/>
       <c r="B207" s="1" t="str"/>
       <c r="C207" s="1" t="str"/>
       <c r="D207" s="1" t="str"/>
       <c r="E207" s="1" t="str"/>
     </row>
-    <row r="208">
+    <row customHeight="true" ht="21" r="208">
       <c r="A208" s="1" t="str"/>
       <c r="B208" s="1" t="str"/>
       <c r="C208" s="1" t="str"/>
       <c r="D208" s="1" t="str"/>
       <c r="E208" s="1" t="str"/>
     </row>
-    <row r="209">
+    <row customHeight="true" ht="21" r="209">
       <c r="A209" s="1" t="str"/>
       <c r="B209" s="1" t="str"/>
       <c r="C209" s="1" t="str"/>
       <c r="D209" s="1" t="str"/>
       <c r="E209" s="1" t="str"/>
     </row>
-    <row r="210">
+    <row customHeight="true" ht="21" r="210">
       <c r="A210" s="1" t="str"/>
       <c r="B210" s="1" t="str"/>
       <c r="C210" s="1" t="str"/>
       <c r="D210" s="1" t="str"/>
       <c r="E210" s="1" t="str"/>
     </row>
-    <row r="211">
+    <row customHeight="true" ht="21" r="211">
       <c r="A211" s="1" t="str"/>
       <c r="B211" s="1" t="str"/>
       <c r="C211" s="1" t="str"/>
       <c r="D211" s="1" t="str"/>
       <c r="E211" s="1" t="str"/>
     </row>
-    <row r="212">
+    <row customHeight="true" ht="21" r="212">
       <c r="A212" s="1" t="str"/>
       <c r="B212" s="1" t="str"/>
       <c r="C212" s="1" t="str"/>
       <c r="D212" s="1" t="str"/>
       <c r="E212" s="1" t="str"/>
     </row>
-    <row r="213">
+    <row customHeight="true" ht="21" r="213">
       <c r="A213" s="1" t="str"/>
       <c r="B213" s="1" t="str"/>
       <c r="C213" s="1" t="str"/>
       <c r="D213" s="1" t="str"/>
       <c r="E213" s="1" t="str"/>
     </row>
-    <row r="214">
+    <row customHeight="true" ht="21" r="214">
       <c r="A214" s="1" t="str"/>
       <c r="B214" s="1" t="str"/>
       <c r="C214" s="1" t="str"/>
       <c r="D214" s="1" t="str"/>
       <c r="E214" s="1" t="str"/>
     </row>
-    <row r="215">
+    <row customHeight="true" ht="21" r="215">
       <c r="A215" s="1" t="str"/>
       <c r="B215" s="1" t="str"/>
       <c r="C215" s="1" t="str"/>
       <c r="D215" s="1" t="str"/>
       <c r="E215" s="1" t="str"/>
     </row>
-    <row r="216">
+    <row customHeight="true" ht="21" r="216">
       <c r="A216" s="1" t="str"/>
       <c r="B216" s="1" t="str"/>
       <c r="C216" s="1" t="str"/>
       <c r="D216" s="1" t="str"/>
       <c r="E216" s="1" t="str"/>
     </row>
-    <row r="217">
+    <row customHeight="true" ht="21" r="217">
       <c r="A217" s="1" t="str"/>
       <c r="B217" s="1" t="str"/>
       <c r="C217" s="1" t="str"/>
       <c r="D217" s="1" t="str"/>
       <c r="E217" s="1" t="str"/>
     </row>
-    <row r="218">
+    <row customHeight="true" ht="21" r="218">
       <c r="A218" s="1" t="str"/>
       <c r="B218" s="1" t="str"/>
       <c r="C218" s="1" t="str"/>
       <c r="D218" s="1" t="str"/>
       <c r="E218" s="1" t="str"/>
     </row>
-    <row r="219">
+    <row customHeight="true" ht="21" r="219">
       <c r="A219" s="1" t="str"/>
       <c r="B219" s="1" t="str"/>
       <c r="C219" s="1" t="str"/>
       <c r="D219" s="1" t="str"/>
       <c r="E219" s="1" t="str"/>
     </row>
-    <row r="220">
+    <row customHeight="true" ht="21" r="220">
       <c r="A220" s="1" t="str"/>
       <c r="B220" s="1" t="str"/>
       <c r="C220" s="1" t="str"/>
       <c r="D220" s="1" t="str"/>
       <c r="E220" s="1" t="str"/>
     </row>
-    <row r="221">
+    <row customHeight="true" ht="21" r="221">
       <c r="A221" s="1" t="str"/>
       <c r="B221" s="1" t="str"/>
       <c r="C221" s="1" t="str"/>
       <c r="D221" s="1" t="str"/>
       <c r="E221" s="1" t="str"/>
     </row>
-    <row r="222">
+    <row customHeight="true" ht="21" r="222">
       <c r="A222" s="1" t="str"/>
       <c r="B222" s="1" t="str"/>
       <c r="C222" s="1" t="str"/>
       <c r="D222" s="1" t="str"/>
       <c r="E222" s="1" t="str"/>
     </row>
-    <row r="223">
+    <row customHeight="true" ht="21" r="223">
       <c r="A223" s="1" t="str"/>
       <c r="B223" s="1" t="str"/>
       <c r="C223" s="1" t="str"/>
       <c r="D223" s="1" t="str"/>
       <c r="E223" s="1" t="str"/>
     </row>
-    <row r="224">
+    <row customHeight="true" ht="21" r="224">
       <c r="A224" s="1" t="str"/>
       <c r="B224" s="1" t="str"/>
       <c r="C224" s="1" t="str"/>
       <c r="D224" s="1" t="str"/>
       <c r="E224" s="1" t="str"/>
     </row>
-    <row r="225">
+    <row customHeight="true" ht="21" r="225">
       <c r="A225" s="1" t="str"/>
       <c r="B225" s="1" t="str"/>
       <c r="C225" s="1" t="str"/>
       <c r="D225" s="1" t="str"/>
       <c r="E225" s="1" t="str"/>
     </row>
-    <row r="226">
+    <row customHeight="true" ht="21" r="226">
       <c r="A226" s="1" t="str"/>
       <c r="B226" s="1" t="str"/>
       <c r="C226" s="1" t="str"/>
       <c r="D226" s="1" t="str"/>
       <c r="E226" s="1" t="str"/>
     </row>
-    <row r="227">
+    <row customHeight="true" ht="21" r="227">
       <c r="A227" s="1" t="str"/>
       <c r="B227" s="1" t="str"/>
       <c r="C227" s="1" t="str"/>
       <c r="D227" s="1" t="str"/>
       <c r="E227" s="1" t="str"/>
     </row>
-    <row r="228">
+    <row customHeight="true" ht="21" r="228">
       <c r="A228" s="1" t="str"/>
       <c r="B228" s="1" t="str"/>
       <c r="C228" s="1" t="str"/>
       <c r="D228" s="1" t="str"/>
       <c r="E228" s="1" t="str"/>
     </row>
-    <row r="229">
+    <row customHeight="true" ht="21" r="229">
       <c r="A229" s="1" t="str"/>
       <c r="B229" s="1" t="str"/>
       <c r="C229" s="1" t="str"/>
       <c r="D229" s="1" t="str"/>
       <c r="E229" s="1" t="str"/>
     </row>
-    <row r="230">
+    <row customHeight="true" ht="21" r="230">
       <c r="A230" s="1" t="str"/>
       <c r="B230" s="1" t="str"/>
       <c r="C230" s="1" t="str"/>
       <c r="D230" s="1" t="str"/>
       <c r="E230" s="1" t="str"/>
     </row>
-    <row r="231">
+    <row customHeight="true" ht="21" r="231">
       <c r="A231" s="1" t="str"/>
       <c r="B231" s="1" t="str"/>
       <c r="C231" s="1" t="str"/>
       <c r="D231" s="1" t="str"/>
       <c r="E231" s="1" t="str"/>
     </row>
-    <row r="232">
+    <row customHeight="true" ht="21" r="232">
       <c r="C232" s="1" t="str"/>
     </row>
-    <row r="233">
+    <row customHeight="true" ht="21" r="233">
       <c r="C233" s="1" t="str"/>
     </row>
-    <row r="234">
+    <row customHeight="true" ht="21" r="234">
       <c r="C234" s="1" t="str"/>
     </row>
-    <row r="235">
+    <row customHeight="true" ht="21" r="235">
       <c r="C235" s="1" t="str"/>
     </row>
-    <row r="236">
+    <row customHeight="true" ht="21" r="236">
       <c r="C236" s="1" t="str"/>
     </row>
-    <row r="237">
+    <row customHeight="true" ht="21" r="237">
       <c r="C237" s="1" t="str"/>
     </row>
-    <row r="238">
+    <row customHeight="true" ht="21" r="238">
       <c r="C238" s="1" t="str"/>
     </row>
-    <row r="239">
+    <row customHeight="true" ht="21" r="239">
       <c r="C239" s="1" t="str"/>
     </row>
-    <row r="240">
+    <row customHeight="true" ht="21" r="240">
       <c r="C240" s="1" t="str"/>
     </row>
   </sheetData>
